--- a/配置文件111.xlsx
+++ b/配置文件111.xlsx
@@ -1017,8 +1017,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="4"/>
